--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1065566.593613078</v>
+        <v>1061991.343240599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2284470.912813047</v>
+        <v>2327352.096509272</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791251</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10085437.03047369</v>
+        <v>10080997.76113367</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>207.288114844726</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.44974320793382</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,16 +707,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>1.637428506963808</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>159.4768341221608</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>65.97397933035215</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>218.188770325173</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>105.7039228072526</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>124.3639509219356</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>149.3488437882623</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.7370577829767</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>237.74112346794</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>176.7534848021093</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>249.3095627072746</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.8343050701096</v>
+        <v>316.939476783036</v>
       </c>
       <c r="C11" t="n">
-        <v>306.5882532979253</v>
+        <v>309.6934250108518</v>
       </c>
       <c r="D11" t="n">
-        <v>298.9312243113256</v>
+        <v>302.036396024252</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9021964504475</v>
+        <v>319.007368163374</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0700009011487</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3756347727035</v>
+        <v>329.48080648563</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.2918984579273</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.40342426721291</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.29809803711304</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>141.7152749449306</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>224.290823989229</v>
+        <v>3.810755479782728</v>
       </c>
       <c r="W11" t="n">
-        <v>284.6335514972221</v>
+        <v>287.7387232101485</v>
       </c>
       <c r="X11" t="n">
-        <v>302.9025858321004</v>
+        <v>306.0077575450268</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.8703088044315</v>
+        <v>312.975480517358</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>103.8056170331414</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84757357049732</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71.42128878233704</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34773083521615</v>
+        <v>74.4529025481426</v>
       </c>
       <c r="F13" t="n">
-        <v>14.81829162667793</v>
+        <v>76.20235396790987</v>
       </c>
       <c r="G13" t="n">
-        <v>83.91602017737556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.80312900832877</v>
       </c>
       <c r="I13" t="n">
-        <v>49.10798792511953</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>43.1116580025019</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1324297951028</v>
+        <v>121.2376015080292</v>
       </c>
       <c r="T13" t="n">
-        <v>150.7063681292748</v>
+        <v>153.8115398422013</v>
       </c>
       <c r="U13" t="n">
-        <v>199.9289106563447</v>
+        <v>203.0340823692712</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6640585432107</v>
+        <v>183.7692302561371</v>
       </c>
       <c r="W13" t="n">
-        <v>197.8416048639608</v>
+        <v>200.9467765768873</v>
       </c>
       <c r="X13" t="n">
-        <v>149.0840258106734</v>
+        <v>152.1891975235998</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2254473873497</v>
+        <v>141.3306191002762</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.8343050701096</v>
+        <v>316.9394767830362</v>
       </c>
       <c r="C14" t="n">
-        <v>306.5882532979253</v>
+        <v>309.6934250108519</v>
       </c>
       <c r="D14" t="n">
-        <v>298.9312243113256</v>
+        <v>302.0363960242522</v>
       </c>
       <c r="E14" t="n">
-        <v>315.9021964504475</v>
+        <v>319.0073681633742</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3756347727035</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.2918984579275</v>
       </c>
       <c r="I14" t="n">
-        <v>54.29825255428646</v>
+        <v>57.40342426721307</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.19292632418659</v>
+        <v>85.29809803711319</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>141.7152749449307</v>
       </c>
       <c r="U14" t="n">
-        <v>170.539709085574</v>
+        <v>173.6448807985006</v>
       </c>
       <c r="V14" t="n">
-        <v>247.3299369263314</v>
+        <v>159.6466811669106</v>
       </c>
       <c r="W14" t="n">
-        <v>284.6335514972221</v>
+        <v>287.7387232101487</v>
       </c>
       <c r="X14" t="n">
-        <v>302.9025858321004</v>
+        <v>306.0077575450269</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8703088044315</v>
+        <v>312.9754805173582</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.7004453202149</v>
+        <v>103.8056170331415</v>
       </c>
       <c r="C16" t="n">
-        <v>85.84757357049732</v>
+        <v>88.95274528342392</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20.05273769281231</v>
       </c>
       <c r="E16" t="n">
-        <v>71.34773083521615</v>
+        <v>74.45290254814276</v>
       </c>
       <c r="F16" t="n">
-        <v>73.09718225498342</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.74727292087933</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>71.2682723439476</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10798792511953</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.00648628957545</v>
+        <v>43.11165800250205</v>
       </c>
       <c r="S16" t="n">
-        <v>118.1324297951028</v>
+        <v>121.2376015080294</v>
       </c>
       <c r="T16" t="n">
-        <v>150.7063681292748</v>
+        <v>153.8115398422015</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9289106563447</v>
+        <v>203.0340823692713</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>183.7692302561373</v>
       </c>
       <c r="W16" t="n">
-        <v>197.8416048639608</v>
+        <v>200.9467765768874</v>
       </c>
       <c r="X16" t="n">
-        <v>149.0840258106734</v>
+        <v>152.1891975236</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.2254473873497</v>
+        <v>141.3306191002763</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422874829</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697358</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>170.4741180407531</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>101.6375013068975</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
         <v>273.2977702070789</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.62194205947642</v>
+        <v>284.7568469714991</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3041,13 +3041,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3089,10 +3089,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
         <v>262.1658326730205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799145</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059378</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U44" t="n">
         <v>122.8352329541629</v>
@@ -4037,7 +4037,7 @@
         <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325497</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1066.636646552609</v>
+        <v>1137.761176091419</v>
       </c>
       <c r="C2" t="n">
-        <v>1066.636646552609</v>
+        <v>1137.761176091419</v>
       </c>
       <c r="D2" t="n">
-        <v>681.1955177692766</v>
+        <v>928.3792419048268</v>
       </c>
       <c r="E2" t="n">
-        <v>681.1955177692766</v>
+        <v>928.3792419048268</v>
       </c>
       <c r="F2" t="n">
-        <v>592.8624438218687</v>
+        <v>915.5252074752086</v>
       </c>
       <c r="G2" t="n">
-        <v>179.6996883098718</v>
+        <v>502.3624519632118</v>
       </c>
       <c r="H2" t="n">
-        <v>179.6996883098718</v>
+        <v>178.2794015297025</v>
       </c>
       <c r="I2" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J2" t="n">
-        <v>41.36257140233664</v>
+        <v>184.5920575309954</v>
       </c>
       <c r="K2" t="n">
-        <v>400.3449274297985</v>
+        <v>543.5744135584572</v>
       </c>
       <c r="L2" t="n">
-        <v>893.6652191483273</v>
+        <v>877.9432978757663</v>
       </c>
       <c r="M2" t="n">
-        <v>1405.527040252243</v>
+        <v>877.9432978757663</v>
       </c>
       <c r="N2" t="n">
-        <v>1628.088969224504</v>
+        <v>1372.229070075086</v>
       </c>
       <c r="O2" t="n">
-        <v>2068.128570116832</v>
+        <v>1812.268670967415</v>
       </c>
       <c r="P2" t="n">
-        <v>2068.128570116832</v>
+        <v>1812.268670967415</v>
       </c>
       <c r="Q2" t="n">
-        <v>2068.128570116832</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R2" t="n">
-        <v>2030.135656402354</v>
+        <v>1959.121317393885</v>
       </c>
       <c r="S2" t="n">
-        <v>1863.622101343405</v>
+        <v>1959.121317393885</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.622101343405</v>
+        <v>1735.620714953302</v>
       </c>
       <c r="U2" t="n">
-        <v>1863.622101343405</v>
+        <v>1479.8679853879</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.622101343405</v>
+        <v>1137.761176091419</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.622101343405</v>
+        <v>1137.761176091419</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.622101343405</v>
+        <v>1137.761176091419</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.131392264006</v>
+        <v>1137.761176091419</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.7285545423676</v>
+        <v>653.4745228849976</v>
       </c>
       <c r="C3" t="n">
-        <v>690.0743241024599</v>
+        <v>502.8202924450898</v>
       </c>
       <c r="D3" t="n">
-        <v>559.9853567239402</v>
+        <v>372.7313250665701</v>
       </c>
       <c r="E3" t="n">
-        <v>423.5388658348278</v>
+        <v>372.7313250665701</v>
       </c>
       <c r="F3" t="n">
-        <v>299.1070597179597</v>
+        <v>248.2995189497019</v>
       </c>
       <c r="G3" t="n">
-        <v>179.0472417898241</v>
+        <v>128.2397010215663</v>
       </c>
       <c r="H3" t="n">
-        <v>90.74982539042506</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I3" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J3" t="n">
-        <v>154.477553622064</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="K3" t="n">
-        <v>154.477553622064</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="L3" t="n">
-        <v>154.477553622064</v>
+        <v>514.2569145104037</v>
       </c>
       <c r="M3" t="n">
-        <v>666.33937472598</v>
+        <v>1008.542686709724</v>
       </c>
       <c r="N3" t="n">
-        <v>916.2802887416282</v>
+        <v>1502.828458909043</v>
       </c>
       <c r="O3" t="n">
-        <v>1428.142109845544</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="P3" t="n">
-        <v>1833.763478561942</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="Q3" t="n">
-        <v>2068.128570116832</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R3" t="n">
-        <v>2044.211527014897</v>
+        <v>1973.197188006428</v>
       </c>
       <c r="S3" t="n">
-        <v>1909.280849914766</v>
+        <v>1838.266510906297</v>
       </c>
       <c r="T3" t="n">
-        <v>1732.297038113674</v>
+        <v>1836.612542717444</v>
       </c>
       <c r="U3" t="n">
-        <v>1522.233894792316</v>
+        <v>1626.549399396086</v>
       </c>
       <c r="V3" t="n">
-        <v>1522.233894792316</v>
+        <v>1404.009397767153</v>
       </c>
       <c r="W3" t="n">
-        <v>1361.14618355781</v>
+        <v>1173.89215190044</v>
       </c>
       <c r="X3" t="n">
-        <v>1171.839105907822</v>
+        <v>984.5850742504517</v>
       </c>
       <c r="Y3" t="n">
-        <v>992.524888983329</v>
+        <v>805.2708573259589</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.9935101264384</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="C4" t="n">
-        <v>739.9935101264384</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="D4" t="n">
-        <v>584.3603970289532</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="E4" t="n">
-        <v>428.8015848881557</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="F4" t="n">
-        <v>271.4756501011287</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="G4" t="n">
-        <v>271.4756501011287</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="H4" t="n">
-        <v>204.8352669391568</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I4" t="n">
-        <v>71.74084157623469</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J4" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="K4" t="n">
-        <v>123.1976125122785</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L4" t="n">
-        <v>287.3252523860783</v>
+        <v>285.9049656059089</v>
       </c>
       <c r="M4" t="n">
-        <v>473.6168307243423</v>
+        <v>472.196543944173</v>
       </c>
       <c r="N4" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O4" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P4" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R4" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="S4" t="n">
-        <v>739.9935101264384</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="T4" t="n">
-        <v>739.9935101264384</v>
+        <v>705.6702553319539</v>
       </c>
       <c r="U4" t="n">
-        <v>739.9935101264384</v>
+        <v>420.2314635738548</v>
       </c>
       <c r="V4" t="n">
-        <v>739.9935101264384</v>
+        <v>420.2314635738548</v>
       </c>
       <c r="W4" t="n">
-        <v>739.9935101264384</v>
+        <v>263.0543458055239</v>
       </c>
       <c r="X4" t="n">
-        <v>739.9935101264384</v>
+        <v>263.0543458055239</v>
       </c>
       <c r="Y4" t="n">
-        <v>739.9935101264384</v>
+        <v>39.94228462216726</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1066.636646552609</v>
+        <v>1244.575704844184</v>
       </c>
       <c r="C5" t="n">
-        <v>673.4611450555394</v>
+        <v>851.4002033471146</v>
       </c>
       <c r="D5" t="n">
-        <v>673.4611450555394</v>
+        <v>465.9590745637823</v>
       </c>
       <c r="E5" t="n">
-        <v>270.8776201720839</v>
+        <v>465.9590745637823</v>
       </c>
       <c r="F5" t="n">
-        <v>50.48492287392941</v>
+        <v>453.1050401341641</v>
       </c>
       <c r="G5" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="H5" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I5" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J5" t="n">
-        <v>41.36257140233664</v>
+        <v>184.5920575309954</v>
       </c>
       <c r="K5" t="n">
-        <v>41.36257140233664</v>
+        <v>543.5744135584572</v>
       </c>
       <c r="L5" t="n">
-        <v>534.6828631208655</v>
+        <v>543.5744135584572</v>
       </c>
       <c r="M5" t="n">
-        <v>583.1940958481174</v>
+        <v>714.601365885193</v>
       </c>
       <c r="N5" t="n">
-        <v>1095.055916952033</v>
+        <v>1208.887138084513</v>
       </c>
       <c r="O5" t="n">
-        <v>1535.095517844362</v>
+        <v>1648.926738976841</v>
       </c>
       <c r="P5" t="n">
-        <v>1883.283009975884</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="Q5" t="n">
-        <v>2068.128570116832</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R5" t="n">
-        <v>2030.135656402354</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="S5" t="n">
-        <v>1863.622101343405</v>
+        <v>1830.600676049414</v>
       </c>
       <c r="T5" t="n">
-        <v>1863.622101343405</v>
+        <v>1607.10007360883</v>
       </c>
       <c r="U5" t="n">
-        <v>1863.622101343405</v>
+        <v>1351.347344043429</v>
       </c>
       <c r="V5" t="n">
-        <v>1863.622101343405</v>
+        <v>1351.347344043429</v>
       </c>
       <c r="W5" t="n">
-        <v>1863.622101343405</v>
+        <v>1351.347344043429</v>
       </c>
       <c r="X5" t="n">
-        <v>1863.622101343405</v>
+        <v>1244.575704844184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.131392264006</v>
+        <v>1244.575704844184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549.1590182812274</v>
+        <v>701.6235973747108</v>
       </c>
       <c r="C6" t="n">
-        <v>423.5388658348278</v>
+        <v>550.969366934803</v>
       </c>
       <c r="D6" t="n">
-        <v>423.5388658348278</v>
+        <v>420.8803995562833</v>
       </c>
       <c r="E6" t="n">
-        <v>423.5388658348278</v>
+        <v>284.433908667171</v>
       </c>
       <c r="F6" t="n">
-        <v>299.1070597179597</v>
+        <v>160.0021025503028</v>
       </c>
       <c r="G6" t="n">
-        <v>179.0472417898241</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="H6" t="n">
-        <v>90.74982539042506</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I6" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J6" t="n">
-        <v>41.36257140233664</v>
+        <v>153.0572668418947</v>
       </c>
       <c r="K6" t="n">
-        <v>41.36257140233664</v>
+        <v>472.7964129041211</v>
       </c>
       <c r="L6" t="n">
-        <v>524.9286573006499</v>
+        <v>956.3624988024344</v>
       </c>
       <c r="M6" t="n">
-        <v>1036.790478404566</v>
+        <v>1450.648271001754</v>
       </c>
       <c r="N6" t="n">
-        <v>1548.652299508482</v>
+        <v>1944.934043201074</v>
       </c>
       <c r="O6" t="n">
-        <v>2060.514120612398</v>
+        <v>1944.934043201074</v>
       </c>
       <c r="P6" t="n">
-        <v>2068.128570116832</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="Q6" t="n">
-        <v>2068.128570116832</v>
+        <v>1997.114231108363</v>
       </c>
       <c r="R6" t="n">
-        <v>2044.211527014897</v>
+        <v>1973.197188006428</v>
       </c>
       <c r="S6" t="n">
-        <v>1909.280849914766</v>
+        <v>1838.266510906297</v>
       </c>
       <c r="T6" t="n">
-        <v>1732.297038113674</v>
+        <v>1661.282699105205</v>
       </c>
       <c r="U6" t="n">
-        <v>1522.233894792316</v>
+        <v>1451.219555783847</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.693893163383</v>
+        <v>1300.362137815905</v>
       </c>
       <c r="W6" t="n">
-        <v>1069.57664729667</v>
+        <v>1070.244891949192</v>
       </c>
       <c r="X6" t="n">
-        <v>880.2695696466815</v>
+        <v>880.9378142992036</v>
       </c>
       <c r="Y6" t="n">
-        <v>700.9553527221888</v>
+        <v>701.6235973747108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.8525057122259</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="C7" t="n">
-        <v>382.8525057122259</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="D7" t="n">
-        <v>227.2193926147407</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="E7" t="n">
-        <v>227.2193926147407</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="F7" t="n">
-        <v>227.2193926147407</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="G7" t="n">
-        <v>227.2193926147407</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="H7" t="n">
-        <v>71.74084157623469</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="I7" t="n">
-        <v>71.74084157623469</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36257140233664</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1976125122785</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L7" t="n">
-        <v>287.3252523860783</v>
+        <v>285.9049656059089</v>
       </c>
       <c r="M7" t="n">
-        <v>473.6168307243423</v>
+        <v>472.196543944173</v>
       </c>
       <c r="N7" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O7" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P7" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="S7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.5732233462691</v>
       </c>
       <c r="T7" t="n">
-        <v>942.8095939438891</v>
+        <v>502.8541715145032</v>
       </c>
       <c r="U7" t="n">
-        <v>942.8095939438891</v>
+        <v>305.921629801343</v>
       </c>
       <c r="V7" t="n">
-        <v>942.8095939438891</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="W7" t="n">
-        <v>942.8095939438891</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="X7" t="n">
-        <v>708.7292717268722</v>
+        <v>39.94228462216726</v>
       </c>
       <c r="Y7" t="n">
-        <v>485.6172105435155</v>
+        <v>39.94228462216726</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.2184964732505</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>377.0429949761811</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>377.0429949761811</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>377.0429949761811</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>364.1889605465629</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>2017.461012945658</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.65655633099</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X8" t="n">
-        <v>1567.203951264046</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="Y8" t="n">
-        <v>1170.713242184647</v>
+        <v>1175.892476341718</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>494.1160677071862</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>210.7856656383638</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7856656383638</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1655.924491071339</v>
+        <v>1636.779045289215</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.23938673</v>
+        <v>1323.957403864112</v>
       </c>
       <c r="D11" t="n">
-        <v>1044.288655102398</v>
+        <v>1018.870135152746</v>
       </c>
       <c r="E11" t="n">
-        <v>725.1955273746735</v>
+        <v>696.6404703412574</v>
       </c>
       <c r="F11" t="n">
-        <v>391.7914860603819</v>
+        <v>696.6404703412574</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411573</v>
+        <v>363.8315749012271</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>120.1023845396843</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="V11" t="n">
-        <v>2879.399997337868</v>
+        <v>2872.8006998908</v>
       </c>
       <c r="W11" t="n">
-        <v>2591.891359461886</v>
+        <v>2582.155524931054</v>
       </c>
       <c r="X11" t="n">
-        <v>2285.929151550673</v>
+        <v>2273.056779936077</v>
       </c>
       <c r="Y11" t="n">
-        <v>1972.928839627005</v>
+        <v>1956.919930928645</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5124,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
         <v>1974.833293963354</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>442.3806357013108</v>
+        <v>247.4306282337934</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6659149230308</v>
+        <v>247.4306282337934</v>
       </c>
       <c r="D13" t="n">
-        <v>283.5231989812762</v>
+        <v>247.4306282337934</v>
       </c>
       <c r="E13" t="n">
-        <v>211.4547839962095</v>
+        <v>172.2256761649626</v>
       </c>
       <c r="F13" t="n">
-        <v>196.4868126561308</v>
+        <v>95.25360144990216</v>
       </c>
       <c r="G13" t="n">
-        <v>111.723155911307</v>
+        <v>95.25360144990216</v>
       </c>
       <c r="H13" t="n">
-        <v>111.723155911307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>114.1743233590097</v>
+        <v>111.1002033632124</v>
       </c>
       <c r="K13" t="n">
-        <v>277.8383027212833</v>
+        <v>271.6900627296887</v>
       </c>
       <c r="L13" t="n">
-        <v>523.7948808474149</v>
+        <v>514.572520860023</v>
       </c>
       <c r="M13" t="n">
-        <v>791.9153974380104</v>
+        <v>779.6189174548215</v>
       </c>
       <c r="N13" t="n">
-        <v>1056.933969721551</v>
+        <v>1041.563369742565</v>
       </c>
       <c r="O13" t="n">
-        <v>1301.467675015591</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P13" t="n">
-        <v>1503.172779044501</v>
+        <v>1481.653939073921</v>
       </c>
       <c r="Q13" t="n">
-        <v>1588.423913666884</v>
+        <v>1563.830953700506</v>
       </c>
       <c r="R13" t="n">
-        <v>1588.423913666884</v>
+        <v>1520.283824405049</v>
       </c>
       <c r="S13" t="n">
-        <v>1469.098227005164</v>
+        <v>1397.821600659565</v>
       </c>
       <c r="T13" t="n">
-        <v>1316.869572329129</v>
+        <v>1242.456408899766</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.92117772676</v>
+        <v>1037.371477213634</v>
       </c>
       <c r="V13" t="n">
-        <v>932.432229703315</v>
+        <v>851.7459921064245</v>
       </c>
       <c r="W13" t="n">
-        <v>732.5922247902231</v>
+        <v>648.7694501095687</v>
       </c>
       <c r="X13" t="n">
-        <v>582.0022997289368</v>
+        <v>495.0429879645183</v>
       </c>
       <c r="Y13" t="n">
-        <v>442.3806357013108</v>
+        <v>352.2847868531281</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1377.367169508851</v>
+        <v>1303.970149849185</v>
       </c>
       <c r="C14" t="n">
-        <v>1067.682065167513</v>
+        <v>991.1485084240824</v>
       </c>
       <c r="D14" t="n">
-        <v>765.7313335399111</v>
+        <v>686.0612397127165</v>
       </c>
       <c r="E14" t="n">
-        <v>446.6382058121863</v>
+        <v>363.8315749012274</v>
       </c>
       <c r="F14" t="n">
-        <v>446.6382058121863</v>
+        <v>363.8315749012274</v>
       </c>
       <c r="G14" t="n">
-        <v>116.9658474559201</v>
+        <v>363.8315749012274</v>
       </c>
       <c r="H14" t="n">
-        <v>116.9658474559201</v>
+        <v>120.1023845396845</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3022.933227302557</v>
+        <v>3019.796690218793</v>
       </c>
       <c r="T14" t="n">
-        <v>3022.933227302557</v>
+        <v>2876.649947850176</v>
       </c>
       <c r="U14" t="n">
-        <v>2850.670894892887</v>
+        <v>2701.251078356741</v>
       </c>
       <c r="V14" t="n">
-        <v>2600.84267577538</v>
+        <v>2539.991804450771</v>
       </c>
       <c r="W14" t="n">
-        <v>2313.334037899398</v>
+        <v>2249.346629491025</v>
       </c>
       <c r="X14" t="n">
-        <v>2007.371829988186</v>
+        <v>1940.247884496048</v>
       </c>
       <c r="Y14" t="n">
-        <v>1694.371518064518</v>
+        <v>1624.111035488616</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.7413699774927</v>
+        <v>247.4306282337913</v>
       </c>
       <c r="C16" t="n">
-        <v>396.0266491992126</v>
+        <v>157.5793703717469</v>
       </c>
       <c r="D16" t="n">
-        <v>396.0266491992126</v>
+        <v>137.3240797729466</v>
       </c>
       <c r="E16" t="n">
-        <v>323.9582342141457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>250.1226965828494</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>183.7113097940824</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>111.723155911307</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>114.1743233590096</v>
+        <v>111.1002033632124</v>
       </c>
       <c r="K16" t="n">
-        <v>277.8383027212828</v>
+        <v>271.6900627296884</v>
       </c>
       <c r="L16" t="n">
-        <v>523.7948808474143</v>
+        <v>514.5725208600225</v>
       </c>
       <c r="M16" t="n">
-        <v>791.9153974380099</v>
+        <v>779.6189174548208</v>
       </c>
       <c r="N16" t="n">
-        <v>1056.933969721551</v>
+        <v>1041.563369742564</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.467675015591</v>
+        <v>1283.022955040807</v>
       </c>
       <c r="P16" t="n">
-        <v>1503.172779044501</v>
+        <v>1481.653939073919</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.423913666883</v>
+        <v>1563.830953700505</v>
       </c>
       <c r="R16" t="n">
-        <v>1548.013321455191</v>
+        <v>1520.283824405048</v>
       </c>
       <c r="S16" t="n">
-        <v>1428.687634793471</v>
+        <v>1397.821600659564</v>
       </c>
       <c r="T16" t="n">
-        <v>1276.458980117436</v>
+        <v>1242.456408899765</v>
       </c>
       <c r="U16" t="n">
-        <v>1074.510585515067</v>
+        <v>1037.371477213632</v>
       </c>
       <c r="V16" t="n">
-        <v>1074.510585515067</v>
+        <v>851.7459921064228</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6705806019754</v>
+        <v>648.7694501095668</v>
       </c>
       <c r="X16" t="n">
-        <v>724.0806555406891</v>
+        <v>495.0429879645163</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.4589915130633</v>
+        <v>352.2847868531261</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975436</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099298</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924162</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1634.317313094942</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2150.837595685923</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975437</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5829,13 +5829,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>67.69877031229888</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128481</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511122</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823213</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240293</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655151</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072231</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1833.765838259578</v>
+        <v>1760.278191992995</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.531018049697</v>
+        <v>1462.043371783114</v>
       </c>
       <c r="D26" t="n">
-        <v>1245.030570553553</v>
+        <v>1289.847292954069</v>
       </c>
       <c r="E26" t="n">
-        <v>937.3877269572856</v>
+        <v>982.2044493578021</v>
       </c>
       <c r="F26" t="n">
-        <v>615.433969774452</v>
+        <v>660.2506921749682</v>
       </c>
       <c r="G26" t="n">
-        <v>297.2118955496435</v>
+        <v>342.0286179501597</v>
       </c>
       <c r="H26" t="n">
-        <v>68.06952640332248</v>
+        <v>112.8862488038387</v>
       </c>
       <c r="I26" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J26" t="n">
-        <v>305.7706610417239</v>
+        <v>307.1909478218932</v>
       </c>
       <c r="K26" t="n">
-        <v>664.7530170691857</v>
+        <v>759.2246655789284</v>
       </c>
       <c r="L26" t="n">
-        <v>1158.073308787714</v>
+        <v>1252.544957297457</v>
       </c>
       <c r="M26" t="n">
-        <v>1704.074208832295</v>
+        <v>1798.545857342038</v>
       </c>
       <c r="N26" t="n">
-        <v>2231.885492469757</v>
+        <v>2352.552137282208</v>
       </c>
       <c r="O26" t="n">
-        <v>2671.925093362086</v>
+        <v>2792.591738174537</v>
       </c>
       <c r="P26" t="n">
-        <v>3069.764891297589</v>
+        <v>3233.830592035632</v>
       </c>
       <c r="Q26" t="n">
-        <v>3347.661813168111</v>
+        <v>3418.676152176581</v>
       </c>
       <c r="R26" t="n">
-        <v>3403.476320166124</v>
+        <v>3474.490659174594</v>
       </c>
       <c r="S26" t="n">
-        <v>3403.476320166124</v>
+        <v>3474.490659174594</v>
       </c>
       <c r="T26" t="n">
-        <v>3274.916399012729</v>
+        <v>3345.930738021199</v>
       </c>
       <c r="U26" t="n">
-        <v>3114.104350734516</v>
+        <v>3185.118689742986</v>
       </c>
       <c r="V26" t="n">
-        <v>3011.440208000276</v>
+        <v>2937.952561733693</v>
       </c>
       <c r="W26" t="n">
-        <v>2735.381854255752</v>
+        <v>2661.894207989169</v>
       </c>
       <c r="X26" t="n">
-        <v>2440.869930475997</v>
+        <v>2367.382284209414</v>
       </c>
       <c r="Y26" t="n">
-        <v>2139.319902683786</v>
+        <v>2065.832256417204</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C27" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D27" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E27" t="n">
-        <v>450.2458208358137</v>
+        <v>451.6661076159831</v>
       </c>
       <c r="F27" t="n">
-        <v>325.8140147189455</v>
+        <v>327.2343014991149</v>
       </c>
       <c r="G27" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4567803914109</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I27" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J27" t="n">
-        <v>181.1845086230499</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="K27" t="n">
-        <v>500.9236546852763</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="L27" t="n">
-        <v>984.4897405835895</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="M27" t="n">
-        <v>1612.261390210271</v>
+        <v>810.3764450299004</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.41860110767</v>
+        <v>1466.154416240459</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.41860110767</v>
+        <v>1982.20397944273</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.039969824068</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.0347656543073</v>
+        <v>500.4550524344765</v>
       </c>
       <c r="C28" t="n">
-        <v>423.7703290074849</v>
+        <v>425.1906157876541</v>
       </c>
       <c r="D28" t="n">
-        <v>363.077897197188</v>
+        <v>364.4981839773571</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4597663435788</v>
+        <v>303.880053123748</v>
       </c>
       <c r="F28" t="n">
-        <v>240.0745128437401</v>
+        <v>241.4947996239093</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7611402303739</v>
+        <v>168.1814270105432</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2232704790563</v>
+        <v>107.6435572592254</v>
       </c>
       <c r="I28" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3471455354583</v>
+        <v>132.7674323156277</v>
       </c>
       <c r="K28" t="n">
-        <v>306.2335483749735</v>
+        <v>307.6538351551428</v>
       </c>
       <c r="L28" t="n">
-        <v>563.4125499783465</v>
+        <v>564.8328367585159</v>
       </c>
       <c r="M28" t="n">
-        <v>842.7554900461839</v>
+        <v>844.1757768263532</v>
       </c>
       <c r="N28" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587136</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883958</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809118</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.42313144622</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6131238844171</v>
+        <v>858.0334106645864</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4734829545886</v>
+        <v>718.8937697347578</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.3021030584202</v>
+        <v>590.7223898385894</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.162273879925</v>
+        <v>1835.186125039747</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.927453670044</v>
+        <v>1536.951304829866</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.4270061739</v>
+        <v>1246.450857333722</v>
       </c>
       <c r="E29" t="n">
-        <v>980.7841625776327</v>
+        <v>938.808013737455</v>
       </c>
       <c r="F29" t="n">
-        <v>658.8304053947988</v>
+        <v>616.8542565546212</v>
       </c>
       <c r="G29" t="n">
-        <v>340.6083311699904</v>
+        <v>298.6321823298128</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4659620236693</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="I29" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J29" t="n">
-        <v>212.7192993121506</v>
+        <v>214.13958609232</v>
       </c>
       <c r="K29" t="n">
-        <v>664.7530170691857</v>
+        <v>573.1219421197818</v>
       </c>
       <c r="L29" t="n">
-        <v>1251.124670517288</v>
+        <v>1159.493595567884</v>
       </c>
       <c r="M29" t="n">
-        <v>1846.777876365849</v>
+        <v>1798.545857342038</v>
       </c>
       <c r="N29" t="n">
-        <v>2374.589160003311</v>
+        <v>2419.408502709073</v>
       </c>
       <c r="O29" t="n">
-        <v>2814.62876089564</v>
+        <v>2941.457606902123</v>
       </c>
       <c r="P29" t="n">
-        <v>3162.816253027162</v>
+        <v>3289.645099033645</v>
       </c>
       <c r="Q29" t="n">
-        <v>3347.661813168111</v>
+        <v>3474.490659174594</v>
       </c>
       <c r="R29" t="n">
-        <v>3403.476320166124</v>
+        <v>3474.490659174594</v>
       </c>
       <c r="S29" t="n">
-        <v>3331.903446394363</v>
+        <v>3402.917785402833</v>
       </c>
       <c r="T29" t="n">
-        <v>3203.343525240968</v>
+        <v>3402.917785402833</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.531476962755</v>
+        <v>3242.10573712462</v>
       </c>
       <c r="V29" t="n">
-        <v>2795.365348953462</v>
+        <v>2994.939609115327</v>
       </c>
       <c r="W29" t="n">
-        <v>2519.306995208938</v>
+        <v>2718.881255370803</v>
       </c>
       <c r="X29" t="n">
-        <v>2224.795071429183</v>
+        <v>2424.369331591048</v>
       </c>
       <c r="Y29" t="n">
-        <v>1923.245043636972</v>
+        <v>2122.819303798838</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C30" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D30" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E30" t="n">
-        <v>450.2458208358137</v>
+        <v>451.6661076159831</v>
       </c>
       <c r="F30" t="n">
-        <v>325.8140147189455</v>
+        <v>327.2343014991149</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4567803914109</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1845086230499</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="K30" t="n">
-        <v>500.9236546852763</v>
+        <v>389.2289592457183</v>
       </c>
       <c r="L30" t="n">
-        <v>984.4897405835895</v>
+        <v>389.2289592457183</v>
       </c>
       <c r="M30" t="n">
-        <v>1612.261390210271</v>
+        <v>809.9057256411901</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.41860110767</v>
+        <v>1465.683696851749</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.41860110767</v>
+        <v>1982.20397944273</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.039969824068</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.0347656543073</v>
+        <v>500.4550524344772</v>
       </c>
       <c r="C31" t="n">
-        <v>423.7703290074849</v>
+        <v>425.1906157876547</v>
       </c>
       <c r="D31" t="n">
-        <v>363.077897197188</v>
+        <v>364.4981839773577</v>
       </c>
       <c r="E31" t="n">
-        <v>302.4597663435788</v>
+        <v>303.8800531237484</v>
       </c>
       <c r="F31" t="n">
-        <v>240.0745128437401</v>
+        <v>241.4947996239096</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7611402303739</v>
+        <v>168.1814270105436</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2232704790563</v>
+        <v>107.6435572592257</v>
       </c>
       <c r="I31" t="n">
-        <v>68.06952640332248</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3471455354583</v>
+        <v>132.7674323156273</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2335483749735</v>
+        <v>307.6538351551426</v>
       </c>
       <c r="L31" t="n">
-        <v>563.4125499783465</v>
+        <v>564.8328367585157</v>
       </c>
       <c r="M31" t="n">
-        <v>842.7554900461835</v>
+        <v>844.1757768263531</v>
       </c>
       <c r="N31" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587135</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.752614578247</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.153700184023</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.193392103788</v>
+        <v>1656.613678883959</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.317989573526</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809119</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.423131446221</v>
       </c>
       <c r="W31" t="n">
-        <v>856.6131238844171</v>
+        <v>858.0334106645868</v>
       </c>
       <c r="X31" t="n">
-        <v>717.4734829545886</v>
+        <v>718.8937697347583</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.3021030584202</v>
+        <v>590.7223898385901</v>
       </c>
     </row>
     <row r="32">
@@ -6692,10 +6692,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6716,19 +6716,19 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
         <v>2855.219708188068</v>
@@ -6743,7 +6743,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
         <v>175.2341099238429</v>
@@ -6783,19 +6783,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>623.4297566485496</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N34" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P34" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q34" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803423</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924145</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7020,16 +7020,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7084,16 +7084,16 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072671</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7138,7 +7138,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974522</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
@@ -7160,22 +7160,22 @@
         <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.671840509931</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7248,7 +7248,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7263,13 +7263,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
         <v>161.4017547291066</v>
@@ -7336,22 +7336,22 @@
         <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750519</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7427,34 +7427,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7676,7 +7676,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188067</v>
@@ -7685,13 +7685,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F46" t="n">
         <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476279</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>490.9945175257535</v>
       </c>
       <c r="M2" t="n">
-        <v>666.7571941269352</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>373.9285206026935</v>
+        <v>648.3970491148749</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>569.1660336127126</v>
       </c>
       <c r="M3" t="n">
-        <v>609.4192645785199</v>
+        <v>591.6656798264027</v>
       </c>
       <c r="N3" t="n">
-        <v>337.8376825669426</v>
+        <v>584.6506706312574</v>
       </c>
       <c r="O3" t="n">
-        <v>609.719701418097</v>
+        <v>591.9661166659797</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>198.7262967767696</v>
+        <v>322.4795488974604</v>
       </c>
       <c r="N5" t="n">
-        <v>666.1506338669922</v>
+        <v>648.3970491148749</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>609.4192645785199</v>
+        <v>591.6656798264027</v>
       </c>
       <c r="N6" t="n">
-        <v>602.4042553833747</v>
+        <v>584.6506706312574</v>
       </c>
       <c r="O6" t="n">
-        <v>609.719701418097</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>94.77472795510668</v>
+        <v>139.7906253317279</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>580.6283116859817</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>505.6324667106232</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,22 +8532,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8772,16 +8772,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.0244253199895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9006,19 +9006,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>551.1687275349758</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9246,10 +9246,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>319.0197961262124</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9717,19 +9717,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>613.9497439416879</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,13 +10431,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,19 +10668,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M36" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>333.1751726140751</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>238.1867267450009</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.29825255428646</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.1929263241865</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>138.6101032320041</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>170.539709085574</v>
+        <v>173.6448807985005</v>
       </c>
       <c r="V11" t="n">
-        <v>31.73942403011441</v>
+        <v>255.3246642524872</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7004453202149</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.95274528342377</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.52646049526349</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>58.27889062830549</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>87.02119189030201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.2682723439476</v>
+        <v>41.57031504854528</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.21315963804598</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.00648628957545</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>330.0700009011487</v>
+        <v>333.1751726140752</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>329.4808064856301</v>
       </c>
       <c r="H14" t="n">
-        <v>238.1867267450009</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>138.6101032320041</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.700311093012086</v>
+        <v>99.48873856535948</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>71.42128878233704</v>
+        <v>54.47372280245133</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>76.20235396791003</v>
       </c>
       <c r="G16" t="n">
-        <v>18.16874725649623</v>
+        <v>87.02119189030216</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>74.37344405687421</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.21315963804614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>180.6640585432107</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>117.1213249804293</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>143.0569654223028</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>256.87658172049</v>
+        <v>17.74167680846729</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>874780.9502007837</v>
+        <v>873494.514689897</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>874780.9502007837</v>
+        <v>873494.514689897</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817544.6612558126</v>
+        <v>811374.8353525387</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817544.6612558127</v>
+        <v>811374.8353525385</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888920.5593730458</v>
+        <v>888920.5593730459</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888920.5593730457</v>
+        <v>888920.5593730459</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>865917.2614799759</v>
+        <v>872087.0873832498</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>865917.2614799759</v>
+        <v>872087.08738325</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333919</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333919</v>
       </c>
       <c r="D2" t="n">
-        <v>450830.4452333919</v>
+        <v>450830.4452333918</v>
       </c>
       <c r="E2" t="n">
-        <v>411177.1685015961</v>
+        <v>407749.4874442218</v>
       </c>
       <c r="F2" t="n">
-        <v>411177.1685015962</v>
+        <v>407749.4874442209</v>
       </c>
       <c r="G2" t="n">
+        <v>450830.4452333922</v>
+      </c>
+      <c r="H2" t="n">
+        <v>450830.4452333922</v>
+      </c>
+      <c r="I2" t="n">
         <v>450830.4452333924</v>
       </c>
-      <c r="H2" t="n">
-        <v>450830.4452333921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>450830.4452333925</v>
-      </c>
       <c r="J2" t="n">
-        <v>438050.8352927977</v>
+        <v>441478.5163501718</v>
       </c>
       <c r="K2" t="n">
-        <v>438050.8352927975</v>
+        <v>441478.5163501719</v>
       </c>
       <c r="L2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="M2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="N2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="O2" t="n">
-        <v>450830.4452333924</v>
+        <v>450830.4452333922</v>
       </c>
       <c r="P2" t="n">
         <v>450830.4452333922</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173269.3627008158</v>
+        <v>167319.728117932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23104.65434918323</v>
+        <v>28619.45038073342</v>
       </c>
       <c r="E3" t="n">
-        <v>121384.3061055977</v>
+        <v>118900.1687352565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38163.58090512878</v>
+        <v>40647.71827547013</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191768.8730399278</v>
+        <v>189284.7356695866</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67258.5367781431</v>
+        <v>69742.67414848442</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989169</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37029.43867432441</v>
+        <v>34545.30130398316</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237678.3429158605</v>
+        <v>241176.6654449997</v>
       </c>
       <c r="C4" t="n">
-        <v>237678.3429158605</v>
+        <v>241176.6654449997</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>163209.5240165946</v>
+        <v>160071.6060205697</v>
       </c>
       <c r="F4" t="n">
-        <v>163209.5240165946</v>
+        <v>160071.6060205695</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26436,13 +26436,13 @@
         <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188080.7174146151</v>
+        <v>191282.9196628495</v>
       </c>
       <c r="K4" t="n">
-        <v>188080.717414615</v>
+        <v>191282.9196628496</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26457,7 +26457,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682604</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65063.15426577585</v>
+        <v>63983.73631284712</v>
       </c>
       <c r="C5" t="n">
-        <v>65063.15426577585</v>
+        <v>63983.73631284712</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54159.30171162807</v>
+        <v>53898.25303089405</v>
       </c>
       <c r="F5" t="n">
-        <v>54159.30171162807</v>
+        <v>53898.25303089404</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59634.59252030639</v>
+        <v>60714.01047323513</v>
       </c>
       <c r="K5" t="n">
-        <v>59634.59252030639</v>
+        <v>60714.01047323514</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25180.41464906003</v>
+        <v>-21649.68464238688</v>
       </c>
       <c r="C6" t="n">
-        <v>148088.9480517558</v>
+        <v>145670.0434755451</v>
       </c>
       <c r="D6" t="n">
-        <v>135118.477055368</v>
+        <v>129603.6810238178</v>
       </c>
       <c r="E6" t="n">
-        <v>72424.0366677758</v>
+        <v>74707.13582634488</v>
       </c>
       <c r="F6" t="n">
-        <v>193808.3427733736</v>
+        <v>193607.3045616008</v>
       </c>
       <c r="G6" t="n">
-        <v>155227.9250444837</v>
+        <v>152743.787674142</v>
       </c>
       <c r="H6" t="n">
-        <v>193391.5059496121</v>
+        <v>193391.5059496122</v>
       </c>
       <c r="I6" t="n">
-        <v>193391.5059496126</v>
+        <v>193391.5059496124</v>
       </c>
       <c r="J6" t="n">
-        <v>-1433.347682051572</v>
+        <v>159.442828967692</v>
       </c>
       <c r="K6" t="n">
-        <v>190335.5253578761</v>
+        <v>189444.1784985544</v>
       </c>
       <c r="L6" t="n">
-        <v>126132.9691714694</v>
+        <v>123648.8318011278</v>
       </c>
       <c r="M6" t="n">
         <v>147269.5847097207</v>
       </c>
       <c r="N6" t="n">
-        <v>193391.5059496124</v>
+        <v>193391.5059496123</v>
       </c>
       <c r="O6" t="n">
-        <v>156362.067275288</v>
+        <v>158846.2046456291</v>
       </c>
       <c r="P6" t="n">
         <v>193391.5059496122</v>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="F2" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="C4" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,25 +26811,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>850.869080041531</v>
+        <v>868.6226647936485</v>
       </c>
       <c r="K4" t="n">
-        <v>850.869080041531</v>
+        <v>868.6226647936485</v>
       </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.70447613141097</v>
+        <v>50.80964784433766</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.28679834290548</v>
+        <v>43.18162662997895</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.07317097267887</v>
+        <v>87.17834268560553</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290551</v>
+        <v>43.18162662997895</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.37998374008703</v>
+        <v>92.13356849220429</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.70447613141097</v>
+        <v>50.80964784433766</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290548</v>
+        <v>43.18162662997895</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.37998374008703</v>
+        <v>92.13356849220429</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>174.2986026507729</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>325.2757508773882</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>173.5765451761168</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>68.33923928588524</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>87.9497861977688</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>124.8917514574866</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>194.536723760149</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>279.8541562090211</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>24.78373721357313</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>70.96575782438131</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.61888072141159</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>158.7486747863429</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>232.2776431547676</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>14.0099890201094</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>123.269409138885</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="C11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="D11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="E11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="F11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="G11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="H11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="I11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="T11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="U11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="V11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="W11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="X11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="C13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="D13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="E13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="F13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="G13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="H13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="I13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="J13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="K13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="L13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="M13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="N13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="O13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="P13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="R13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="S13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="T13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="U13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="V13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="W13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="X13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.65549318417335</v>
+        <v>79.5503214712469</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="C14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="D14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="E14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="F14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="G14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="H14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="I14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="T14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="U14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="V14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="W14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="X14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="C16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="D16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="E16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="F16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="G16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="H16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="I16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="J16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="K16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="L16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="M16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="N16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="O16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="P16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="R16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="S16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="T16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="U16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="V16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="W16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="X16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.65549318417335</v>
+        <v>79.55032147124675</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.71049010668918</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>35.71049010668771</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.71049010668912</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29299,7 +29299,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29308,16 +29308,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>26.45959222495787</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>50.15384424644577</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29460,7 +29460,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
         <v>93.99127447431646</v>
@@ -29509,46 +29509,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M29" t="n">
-        <v>50.15384424644526</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>82.83788212194099</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="32">
@@ -29934,25 +29934,25 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>128.2979821082783</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>28.01250026485215</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082768</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>128.2979821082767</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.297982108277</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>337.7463477952618</v>
       </c>
       <c r="M2" t="n">
-        <v>517.032142529208</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>224.8100292649095</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>479.1056867557944</v>
       </c>
       <c r="M3" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="N3" t="n">
-        <v>252.465569712776</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="O3" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>49.00124517904235</v>
+        <v>172.7544972997331</v>
       </c>
       <c r="N5" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="N6" t="n">
-        <v>517.032142529208</v>
+        <v>499.2785577770908</v>
       </c>
       <c r="O6" t="n">
-        <v>517.032142529208</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>7.691363135792026</v>
+        <v>52.70726051241324</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>431.5098203481975</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>356.0686292865269</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>633.6373032706776</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58100571201428</v>
+        <v>49.47583399908783</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3171508709833</v>
+        <v>162.2119791580569</v>
       </c>
       <c r="L13" t="n">
-        <v>248.4409880061933</v>
+        <v>245.3358162932669</v>
       </c>
       <c r="M13" t="n">
-        <v>270.8288046369653</v>
+        <v>267.7236329240388</v>
       </c>
       <c r="N13" t="n">
-        <v>267.6955275591321</v>
+        <v>264.5903558462057</v>
       </c>
       <c r="O13" t="n">
-        <v>247.0037427212522</v>
+        <v>243.8985710083257</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7425293221315</v>
+        <v>200.6373576092051</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.11225719432584</v>
+        <v>83.00708548139939</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>458.4811686460869</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58100571201428</v>
+        <v>49.47583399908768</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3171508709833</v>
+        <v>162.2119791580567</v>
       </c>
       <c r="L16" t="n">
-        <v>248.4409880061933</v>
+        <v>245.3358162932667</v>
       </c>
       <c r="M16" t="n">
-        <v>270.8288046369653</v>
+        <v>267.7236329240387</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6955275591321</v>
+        <v>264.5903558462055</v>
       </c>
       <c r="O16" t="n">
-        <v>247.0037427212522</v>
+        <v>243.8985710083256</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7425293221315</v>
+        <v>200.6373576092049</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.11225719432584</v>
+        <v>83.00708548139923</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35966,10 +35966,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>231.9364313068977</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>201.4959849287092</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.1672541168416</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094888</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36604,16 +36604,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>559.602302969869</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>401.8583817530335</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.2621850527989</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>601.6699048975368</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>527.3223274677273</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36853,7 +36853,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37248,7 +37248,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>5.636002634529554</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>193.7979950868721</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634527946</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453556</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528176</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
